--- a/xlsx/政策_政策_藍圖_intext.xlsx
+++ b/xlsx/政策_政策_藍圖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>藍圖</t>
   </si>
@@ -84,126 +84,6 @@
   </si>
   <si>
     <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B7%D8%A8%D8%B9%D8%A9_%D8%B2%D8%B1%D9%82%D8%A7%D8%A1</t>
-  </si>
-  <si>
-    <t>طبعة زرقاء – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Blueprint</t>
-  </si>
-  <si>
-    <t>Blueprint – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cs.wikipedia.org/wiki/Diazotypie</t>
-  </si>
-  <si>
-    <t>Diazotypie – 捷克语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Bl%C3%A5tryk</t>
-  </si>
-  <si>
-    <t>Blåtryk – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Blueprint</t>
-  </si>
-  <si>
-    <t>Blueprint – 英语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Blueprint_(dibujo_t%C3%A9cnico)</t>
-  </si>
-  <si>
-    <t>Blueprint (dibujo técnico) – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%A8%D9%84%D9%88%D9%BE%D8%B1%DB%8C%D9%86%D8%AA</t>
-  </si>
-  <si>
-    <t>بلوپرینت – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Sinikopio</t>
-  </si>
-  <si>
-    <t>Sinikopio – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Blueprint</t>
-  </si>
-  <si>
-    <t>Blueprint – 法语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Cetak_biru</t>
-  </si>
-  <si>
-    <t>Cetak biru – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E9%9D%92%E5%9B%B3</t>
-  </si>
-  <si>
-    <t>青図 – 日语</t>
-  </si>
-  <si>
-    <t>https://jbo.wikipedia.org/wiki/dijyselpla</t>
-  </si>
-  <si>
-    <t>dijyselpla – 逻辑语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%B2%AD%EC%82%AC%EC%A7%84</t>
-  </si>
-  <si>
-    <t>청사진 – 韩语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Blauwdruk</t>
-  </si>
-  <si>
-    <t>Blauwdruk – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Blueprint</t>
-  </si>
-  <si>
-    <t>Blueprint – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%A1%D0%B8%D0%BD%D1%8C%D0%BA%D0%B0_(%D0%BA%D0%BE%D0%BF%D0%B8%D1%8F_%D1%87%D0%B5%D1%80%D1%82%D0%B5%D0%B6%D0%B0)</t>
-  </si>
-  <si>
-    <t>Синька (копия чертежа) – 俄语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Blueprint</t>
-  </si>
-  <si>
-    <t>Blueprint – Simple English</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Bl%C3%A5kopia</t>
-  </si>
-  <si>
-    <t>Blåkopia – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%A8%E0%AF%80%E0%AE%B2_%E0%AE%85%E0%AE%9A%E0%AF%8D%E0%AE%9A%E0%AF%81%E0%AE%AA%E0%AF%8D%E0%AE%AA%E0%AE%9F%E0%AE%BF</t>
-  </si>
-  <si>
-    <t>நீல அச்சுப்படி – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://ur.wikipedia.org/wiki/%D8%A8%D9%84%DB%8C%D9%88%D9%BE%D8%B1%D9%86%D9%B9</t>
-  </si>
-  <si>
-    <t>بلیوپرنٹ – 乌尔都语</t>
   </si>
 </sst>
 </file>
@@ -552,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,586 +756,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
